--- a/result/metrics_values/Andante.xlsx
+++ b/result/metrics_values/Andante.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00017924417446920398</t>
+          <t>0.00017958266512948197</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.953138312461627e-05</t>
+          <t>6.977466618588564e-05</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.152510673405905e-05</t>
+          <t>4.316476791412108e-05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/result/metrics_values/Andante.xlsx
+++ b/result/metrics_values/Andante.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00017958266512948197</t>
+          <t>0.00017924417446920396</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.977466618588564e-05</t>
+          <t>6.953138312461628e-05</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.00025242209379755537</t>
+          <t>0.0002524220937975553</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.316476791412108e-05</t>
+          <t>4.152510673405905e-05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">

--- a/result/metrics_values/Andante.xlsx
+++ b/result/metrics_values/Andante.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00017924417446920396</t>
+          <t>0.00017924417446920398</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.901379597653503e-05</t>
+          <t>3.9612579033800765e-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6.953138312461628e-05</t>
+          <t>7.050398688668653e-05</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0002524220937975553</t>
+          <t>0.00025242209379755537</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8.733363503004172e-05</t>
+          <t>8.867403013070996e-05</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
